--- a/files_import/chaves_multiplas _colunas_excel_header.xlsx
+++ b/files_import/chaves_multiplas _colunas_excel_header.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\projects\gacc\nfpauto\files_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9F512FE-D922-4282-87EF-C8566485948D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6854E2-A830-4FC7-A631-CC2E693011CD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="10890" yWindow="2385" windowWidth="13635" windowHeight="10515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="chaves_multiplas _colunas_csv_h" sheetId="1" r:id="rId1"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -34,9 +34,6 @@
     <t>teste4</t>
   </si>
   <si>
-    <t>chave</t>
-  </si>
-  <si>
     <t>dsfdsfdsfsd</t>
   </si>
   <si>
@@ -48,11 +45,14 @@
   <si>
     <t>35190903776210000407590001563141522384821761</t>
   </si>
+  <si>
+    <t>Chave</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -887,11 +887,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,7 +914,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -931,7 +931,7 @@
         <v>45336</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -948,7 +948,7 @@
         <v>45336</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -965,7 +965,7 @@
         <v>45336</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -982,7 +982,7 @@
         <v>45336</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
